--- a/partIII-addition.xlsx
+++ b/partIII-addition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="780" windowWidth="24020" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="11340" yWindow="480" windowWidth="19600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
   <si>
     <t>revolt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2752,6 +2752,2913 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>zhuan li quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preponderant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.占优势的，突出的，压倒性的</t>
+    <rPh sb="4" eb="5">
+      <t>zhan you shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ya dao xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disaffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使不满；使疏远</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减轻，缓和</t>
+    <rPh sb="2" eb="3">
+      <t>jian qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sundry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.各式各样的，各种的</t>
+    <rPh sb="4" eb="5">
+      <t>ge shi ge yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge zhong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.旋转的  v.旋转，回旋</t>
+    <rPh sb="4" eb="5">
+      <t>xuan zhuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xuan zhuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.竞争；质疑</t>
+    <rPh sb="2" eb="3">
+      <t>jing zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.制止，镇压</t>
+    <rPh sb="2" eb="3">
+      <t>zhi zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.激发，刺激</t>
+    <rPh sb="2" eb="3">
+      <t>ji fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lassitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.疲倦无力，无精打采</t>
+    <rPh sb="2" eb="3">
+      <t>pi juan wu li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu jing da cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 睡眠，安眠  n.安眠</t>
+    <rPh sb="3" eb="4">
+      <t>shui mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>an mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ejaculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突然叫出或说出；射出</t>
+    <rPh sb="2" eb="3">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shuo chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>she chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄脏，玷污  n.污点，污迹</t>
+    <rPh sb="2" eb="3">
+      <t>nong zang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu dian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wu ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gambol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.雀跃；嬉戏  v.雀跃；耍闹</t>
+    <rPh sb="2" eb="3">
+      <t>que yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>que yue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shua nao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rakish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.潇洒的；放荡的</t>
+    <rPh sb="4" eb="5">
+      <t>xiao sa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang dang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interstice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.裂隙，空隙</t>
+    <rPh sb="2" eb="3">
+      <t>lie xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.丑角；愚蠢的人</t>
+    <rPh sb="2" eb="3">
+      <t>chou jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu chun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使痛苦，使难受</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nan shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snappish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.脾气暴躁的</t>
+    <rPh sb="4" eb="5">
+      <t>pi qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.宣告无罪；脱卸义务和责任</t>
+    <rPh sb="2" eb="3">
+      <t>xuan gao wu zui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tuo xie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ze ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还清(债务)</t>
+    <rPh sb="0" eb="1">
+      <t>huan qing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhai wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tirade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.长篇的攻击性演说</t>
+    <rPh sb="2" eb="3">
+      <t>chang pian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong ji xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.锻炼；调和，使缓和  n.脾气，性情</t>
+    <rPh sb="2" eb="3">
+      <t>duan lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huan he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>p qi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xing qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vilify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.辱骂，诽谤</t>
+    <rPh sb="2" eb="3">
+      <t>ru ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.摇摇欲坠；步履蹒跚</t>
+    <rPh sb="2" eb="3">
+      <t>yao yao yu zui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu lü pan shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.含糊不清地讲</t>
+    <rPh sb="2" eb="3">
+      <t>han hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inebriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使……醉  n.酒鬼，酒徒</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu gui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiu tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发泄，报复；发泄怒火</t>
+    <rPh sb="2" eb="3">
+      <t>fa xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa xie nu huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colloquy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(非正式的)交谈，会谈</t>
+    <rPh sb="3" eb="4">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao tan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.步枪 v.抢夺，偷走</t>
+    <rPh sb="2" eb="3">
+      <t>bu qiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiang duo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tou zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>militia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.民兵</t>
+    <rPh sb="2" eb="3">
+      <t>min bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dingy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肮脏的，昏暗的</t>
+    <rPh sb="4" eb="5">
+      <t>ang zang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hu nan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devotee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.爱好者，献身者</t>
+    <rPh sb="2" eb="3">
+      <t>ai hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian shen zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attenuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.变薄；变弱  adj.减弱的</t>
+    <rPh sb="2" eb="3">
+      <t>bian bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian ruo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jian ruo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfeit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.饮食过量，过度  v.使过量</t>
+    <rPh sb="2" eb="3">
+      <t>yin shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo laing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guo liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gripe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.抱怨；惹恼，激怒</t>
+    <rPh sb="2" eb="3">
+      <t>bao yuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>re nao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sermon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.布道；说教，训诫</t>
+    <rPh sb="2" eb="3">
+      <t>bu dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo jiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xun jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cranky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.怪癖的；不稳定的</t>
+    <rPh sb="4" eb="5">
+      <t>guai pi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu wen ding</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embroil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使混乱，使卷入纠纷</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hun luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>juan ru</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiu fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quandary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.困惑，进退两难，窘境</t>
+    <rPh sb="2" eb="3">
+      <t>kun huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin tui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liang nan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiong jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.懦弱的，畏缩的</t>
+    <rPh sb="4" eb="5">
+      <t>nuo ruo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruckus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧闹，骚动</t>
+    <rPh sb="2" eb="3">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sao dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.口吃，结巴地说</t>
+    <rPh sb="2" eb="3">
+      <t>kou chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie ba</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使苦恼，使厌烦</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ku nao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yan fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.朦胧的，不清楚的</t>
+    <rPh sb="4" eb="5">
+      <t>meng long</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu qing chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conciliate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.安抚；安慰；调和</t>
+    <rPh sb="2" eb="3">
+      <t>an fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扭，拧；夺取，费力取得</t>
+    <rPh sb="2" eb="3">
+      <t>niu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ning</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duo qu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fei li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilapidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)荒废，(使)毁坏</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang fei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.争吵，口角</t>
+    <rPh sb="2" eb="3">
+      <t>zheng chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">canorous </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.音调优美的，有旋律的</t>
+    <rPh sb="4" eb="5">
+      <t>yin diao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you mei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you xuan lü</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtuosity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.精湛技巧</t>
+    <rPh sb="2" eb="3">
+      <t>jing zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji qiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intercede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.说好话，代为求情</t>
+    <rPh sb="2" eb="3">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recompense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.报酬，赔偿</t>
+    <rPh sb="2" eb="3">
+      <t>bao chou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使纠缠，纠结；拆开，拆散</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiu chan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiu jie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chai kai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chai san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bumptious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.傲慢的，自夸的</t>
+    <rPh sb="4" eb="5">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi kua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affiliation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.联系，联合</t>
+    <rPh sb="2" eb="3">
+      <t>lian xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.恶劣的，卑鄙的，道德败坏的</t>
+    <rPh sb="4" eb="5">
+      <t>e lie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei bi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dao de bai huai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.外观，装束；伪装，假装</t>
+    <rPh sb="2" eb="3">
+      <t>wai guan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei zhuang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jia zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.招惹</t>
+    <rPh sb="2" eb="3">
+      <t>zhao re</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suavity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.柔和，愉快</t>
+    <rPh sb="2" eb="3">
+      <t>rou he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.等待，逗留</t>
+    <rPh sb="2" eb="3">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dou liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无节制的，肆无忌惮的；</t>
+    <rPh sb="4" eb="5">
+      <t>wu jie zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>si wu ji dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬉戏的；淘气的</t>
+    <rPh sb="4" eb="5">
+      <t>tao qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.紫罗兰色的  n.紫罗兰</t>
+    <rPh sb="4" eb="5">
+      <t>zi luo lan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>se</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi luo lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jejune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.空洞的；不成熟的</t>
+    <rPh sb="4" eb="5">
+      <t>kong dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.违反，违犯</t>
+    <rPh sb="2" eb="3">
+      <t>wei fan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v. 休息，安眠</t>
+    <rPh sb="6" eb="7">
+      <t>xiu xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>an mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perambulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.巡视；漫步</t>
+    <rPh sb="2" eb="3">
+      <t>xun shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>man bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.腾跃，欢跃</t>
+    <rPh sb="2" eb="3">
+      <t>teng yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan yue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overthrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.／n. 推翻；终止</t>
+    <rPh sb="6" eb="7">
+      <t>tui fan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.间歇的，不规则的</t>
+    <rPh sb="4" eb="5">
+      <t>jian xie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu gui ze</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamentable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人惋惜的，悔恨的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui hen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prelude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.序幕，前奏</t>
+    <rPh sb="2" eb="3">
+      <t>xu mu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excruciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.施酷刑；折磨</t>
+    <rPh sb="2" eb="3">
+      <t>shi jiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ku xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depressed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.消沉的；凹陷的</t>
+    <rPh sb="4" eb="5">
+      <t>xiao chen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ao xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frolic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.嬉戏；雀跃  v.嬉戏</t>
+    <rPh sb="2" eb="3">
+      <t>xi xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que yue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morsel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(食物的)一小口，一小块；小量，一点</t>
+    <rPh sb="3" eb="4">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi xiao kou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi xiao kuai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiao liang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tarry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.耽搁</t>
+    <rPh sb="2" eb="3">
+      <t>dan ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(孩子)断奶；戒掉</t>
+    <rPh sb="3" eb="4">
+      <t>hai zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duan nai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie diao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stooge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.配角，陪衬；傀儡</t>
+    <rPh sb="2" eb="3">
+      <t>pei jaio</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei chen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kui lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.患麻疹的；少的可怜的，微不足道的</t>
+    <rPh sb="4" eb="5">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ma zhen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shao de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke lian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei bu zu dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratuity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赏钱，小费</t>
+    <rPh sb="2" eb="3">
+      <t>shang qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wroth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.暴怒的，非常愤怒的</t>
+    <rPh sb="4" eb="5">
+      <t>bao nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fen nu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simonize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.给……打蜡，把……擦亮</t>
+    <rPh sb="2" eb="3">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da la</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ca liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expatiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.细说，详述</t>
+    <rPh sb="2" eb="3">
+      <t>xi shuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundabout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.绕道的，迂回的</t>
+    <rPh sb="4" eb="5">
+      <t>rao dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interlard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使混杂，混入</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hun za</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hun ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v. 瞥见，偷看；初现</t>
+    <rPh sb="6" eb="7">
+      <t>pie jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tou kan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu jian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.喋喋不休地胡说，唠叨</t>
+    <rPh sb="2" eb="3">
+      <t>die die bu xiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hu shuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lao dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.恶作剧，玩笑</t>
+    <rPh sb="2" eb="3">
+      <t>e zuo ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.对照，核对</t>
+    <rPh sb="2" eb="3">
+      <t>dui zhoa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quirk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奇事；怪癖</t>
+    <rPh sb="2" eb="3">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guai pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foppish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(似)纨绔子弟；浮华的，俗丽的</t>
+    <rPh sb="5" eb="6">
+      <t>si</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wan ku zi di</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fu hua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>su</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.嚎叫，恸哭</t>
+    <rPh sb="2" eb="3">
+      <t>hao ku</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plenary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.全体出席的；完全的，绝对的，无限的</t>
+    <rPh sb="4" eb="5">
+      <t>quan ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jue dui</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wu xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.脱去；剥蚀；剥夺</t>
+    <rPh sb="2" eb="3">
+      <t>tuo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bo pi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bo duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.召集；召开(会议)</t>
+    <rPh sb="2" eb="3">
+      <t>zhao ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhoa kai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lethargy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.昏睡；呆滞，懒散</t>
+    <rPh sb="2" eb="3">
+      <t>hun shui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lan san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.牢骚，不满；好抱怨的人</t>
+    <rPh sb="2" eb="3">
+      <t>lao sao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu man</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bao yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confiscate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.没收，充公</t>
+    <rPh sb="2" eb="3">
+      <t>mo'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tatty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.破旧的，褴褛的；破败的</t>
+    <rPh sb="4" eb="5">
+      <t>po'jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lan'lv</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>po'bai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full-blown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.成熟的；(花)盛开的；全面的，完善的</t>
+    <rPh sb="4" eb="5">
+      <t>cheng'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sheng'kai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>quan'mian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wan'shan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闪烁，闪耀</t>
+    <rPh sb="2" eb="3">
+      <t>shan'shuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shan'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.灿烂的光华；诱惑力，魅力</t>
+    <rPh sb="2" eb="3">
+      <t>chan'lan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'ho'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mei'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.摸索，笨拙地搜寻；弄乱，搞糟</t>
+    <rPh sb="2" eb="3">
+      <t>mo suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ben zhuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sou xun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nong luan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gao zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glimmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发微光  n.摇曳的微光</t>
+    <rPh sb="2" eb="3">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei guang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yao ye</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emanate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.散发，发出；发源</t>
+    <rPh sb="2" eb="3">
+      <t>san fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>braise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.炖，蒸</t>
+    <rPh sb="2" eb="3">
+      <t>dun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuffy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.通风不好的，闷热的</t>
+    <rPh sb="4" eb="5">
+      <t>tong fng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>men re</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.拘泥小节；小气地给</t>
+    <rPh sb="2" eb="3">
+      <t>ju ni</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.精通的  n.山坡</t>
+    <rPh sb="4" eb="5">
+      <t>jing tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shan po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.没有宗教信仰的人；异教徒</t>
+    <rPh sb="2" eb="3">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zong jiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi jiao tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subvention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.补助金，津贴</t>
+    <rPh sb="2" eb="3">
+      <t>bu zhu jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin tie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poohed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.疲倦的</t>
+    <rPh sb="4" eb="5">
+      <t>pi juan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.勇气，斗志</t>
+    <rPh sb="2" eb="3">
+      <t>yong qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dou zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambaste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.痛打；痛骂</t>
+    <rPh sb="2" eb="3">
+      <t>tong da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inveterate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.积习已深的，根深蒂固的</t>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gen shen di gu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.妙计，成功之举</t>
+    <rPh sb="2" eb="3">
+      <t>miao ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng gong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>licentious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.放荡的，纵欲的；放肆的</t>
+    <rPh sb="4" eb="5">
+      <t>fang dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zong yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang si</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.僵硬的，呆板的，严厉的</t>
+    <rPh sb="4" eb="5">
+      <t>jiang ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dai ban</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yan li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.纠缠，烦扰</t>
+    <rPh sb="2" eb="3">
+      <t>jiu chan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宽恕，豁免</t>
+    <rPh sb="2" eb="3">
+      <t>kuan shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tremendous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.恐慌的，可怕的，巨大的，惊人的</t>
+    <rPh sb="4" eb="5">
+      <t>kong huang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke pa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jing ren</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺探；撬开 n.撬杠，杠杆</t>
+    <rPh sb="2" eb="3">
+      <t>ci tan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao kai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gang gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挡开，避开(武器、问题等)</t>
+    <rPh sb="2" eb="3">
+      <t>dang kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi kai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧哗，吵闹；骚动，骚乱</t>
+    <rPh sb="2" eb="3">
+      <t>xuan hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao nao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sao dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sao luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eerie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可怕的，怪异的</t>
+    <rPh sb="4" eb="5">
+      <t>ke pa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guai yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mendacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不真实的，虚假的；习惯性说谎的</t>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu jia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xi guan xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shuo huang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debrief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.盘问，听取报告</t>
+    <rPh sb="2" eb="3">
+      <t>pan wen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ting qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.裂开；目瞪口呆地凝视</t>
+    <rPh sb="2" eb="3">
+      <t>lie kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mu deng kou dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ning shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.匍匐前进；悄悄地移动，蹑手蹑脚地走</t>
+    <rPh sb="2" eb="3">
+      <t>pu fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qian jin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiao qiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nie shou nie jiao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>di</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleonastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.冗言的</t>
+    <rPh sb="4" eb="5">
+      <t>rong yan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">peeve </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使气恼，怨恨</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi nao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuan hen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspissate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)浓缩</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>non suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bromide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.庸俗的人；陈词滥调；镇静剂，安眠药</t>
+    <rPh sb="2" eb="3">
+      <t>yong su</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chen ci lan diao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhen jing ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>an mian yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肿胀的；浮夸的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu kua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.撒满，散播</t>
+    <rPh sb="2" eb="3">
+      <t>sa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>san bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.意志，决断力</t>
+    <rPh sb="2" eb="3">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jue duan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>badinage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.玩笑，打趣</t>
+    <rPh sb="2" eb="3">
+      <t>wan xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draggy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.拖拉的，极为讨厌的</t>
+    <rPh sb="4" eb="5">
+      <t>tuo la</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headlong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./adv. 轻率的／地；迅猛的／地</t>
+    <rPh sb="10" eb="11">
+      <t>qing shuai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xun meng</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.猛击；苦干</t>
+    <rPh sb="2" eb="3">
+      <t>meng ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ku gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overbearing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.专横的，独断的</t>
+    <rPh sb="4" eb="5">
+      <t>zhuan heng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>du duan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowbred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.粗野的，粗俗的</t>
+    <rPh sb="4" eb="5">
+      <t>cu ye e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoilsport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.使人扫兴的人</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sao xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>rne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persiflage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.挖苦，嘲弄</t>
+    <rPh sb="2" eb="3">
+      <t>wa ku</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao nong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 旧病复发；再度恶化</t>
+    <rPh sb="6" eb="7">
+      <t>jiu qing fu fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zai du</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>e hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.呼啸而过，快速通过</t>
+    <rPh sb="2" eb="3">
+      <t>hu xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er guo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kuai su</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tong guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛投，用力投掷</t>
+    <rPh sb="0" eb="1">
+      <t>meng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.圆滑的，能言善道的，善辩的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>neng yan shan bian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shan bian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bi an</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verisimilar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.好像真实的，逼真的；可能的</t>
+    <rPh sb="4" eb="5">
+      <t>hao xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bi zhen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.冲洗；痛饮</t>
+    <rPh sb="2" eb="3">
+      <t>chong xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elocution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.演说术</t>
+    <rPh sb="2" eb="3">
+      <t>yan hsuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3076,10 +5983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A135" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:B153"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A294" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4303,6 +7210,1210 @@
         <v>302</v>
       </c>
     </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>350</v>
+      </c>
+      <c r="B179" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>368</v>
+      </c>
+      <c r="B188" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>370</v>
+      </c>
+      <c r="B189" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>372</v>
+      </c>
+      <c r="B190" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>374</v>
+      </c>
+      <c r="B191" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>376</v>
+      </c>
+      <c r="B192" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>378</v>
+      </c>
+      <c r="B193" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>380</v>
+      </c>
+      <c r="B194" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>382</v>
+      </c>
+      <c r="B195" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>392</v>
+      </c>
+      <c r="B200" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>398</v>
+      </c>
+      <c r="B203" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>402</v>
+      </c>
+      <c r="B205" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>410</v>
+      </c>
+      <c r="B209" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>412</v>
+      </c>
+      <c r="B210" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>414</v>
+      </c>
+      <c r="B211" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>416</v>
+      </c>
+      <c r="B212" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>418</v>
+      </c>
+      <c r="B213" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>420</v>
+      </c>
+      <c r="B214" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>422</v>
+      </c>
+      <c r="B215" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>425</v>
+      </c>
+      <c r="B217" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>427</v>
+      </c>
+      <c r="B218" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>429</v>
+      </c>
+      <c r="B219" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>433</v>
+      </c>
+      <c r="B221" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>435</v>
+      </c>
+      <c r="B222" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>437</v>
+      </c>
+      <c r="B223" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>439</v>
+      </c>
+      <c r="B224" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>441</v>
+      </c>
+      <c r="B225" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>443</v>
+      </c>
+      <c r="B226" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>445</v>
+      </c>
+      <c r="B227" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>447</v>
+      </c>
+      <c r="B228" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>449</v>
+      </c>
+      <c r="B229" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>451</v>
+      </c>
+      <c r="B230" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>453</v>
+      </c>
+      <c r="B231" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>455</v>
+      </c>
+      <c r="B232" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>457</v>
+      </c>
+      <c r="B233" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>459</v>
+      </c>
+      <c r="B234" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>461</v>
+      </c>
+      <c r="B235" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>465</v>
+      </c>
+      <c r="B237" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>467</v>
+      </c>
+      <c r="B238" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>469</v>
+      </c>
+      <c r="B239" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>471</v>
+      </c>
+      <c r="B240" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>473</v>
+      </c>
+      <c r="B241" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>475</v>
+      </c>
+      <c r="B242" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>477</v>
+      </c>
+      <c r="B243" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>479</v>
+      </c>
+      <c r="B244" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>481</v>
+      </c>
+      <c r="B245" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>483</v>
+      </c>
+      <c r="B246" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>485</v>
+      </c>
+      <c r="B247" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>487</v>
+      </c>
+      <c r="B248" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>489</v>
+      </c>
+      <c r="B249" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>491</v>
+      </c>
+      <c r="B250" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>493</v>
+      </c>
+      <c r="B251" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>495</v>
+      </c>
+      <c r="B252" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>497</v>
+      </c>
+      <c r="B253" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>499</v>
+      </c>
+      <c r="B254" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>501</v>
+      </c>
+      <c r="B255" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>503</v>
+      </c>
+      <c r="B256" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>506</v>
+      </c>
+      <c r="B258" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>508</v>
+      </c>
+      <c r="B259" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>510</v>
+      </c>
+      <c r="B260" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>512</v>
+      </c>
+      <c r="B261" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>514</v>
+      </c>
+      <c r="B262" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>516</v>
+      </c>
+      <c r="B263" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>518</v>
+      </c>
+      <c r="B264" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>520</v>
+      </c>
+      <c r="B265" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>522</v>
+      </c>
+      <c r="B266" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>524</v>
+      </c>
+      <c r="B267" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>526</v>
+      </c>
+      <c r="B268" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>528</v>
+      </c>
+      <c r="B269" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>530</v>
+      </c>
+      <c r="B270" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>532</v>
+      </c>
+      <c r="B271" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>534</v>
+      </c>
+      <c r="B272" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>538</v>
+      </c>
+      <c r="B274" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>540</v>
+      </c>
+      <c r="B275" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>542</v>
+      </c>
+      <c r="B276" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>544</v>
+      </c>
+      <c r="B277" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>546</v>
+      </c>
+      <c r="B278" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>548</v>
+      </c>
+      <c r="B279" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>550</v>
+      </c>
+      <c r="B280" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>552</v>
+      </c>
+      <c r="B281" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>554</v>
+      </c>
+      <c r="B282" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>556</v>
+      </c>
+      <c r="B283" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>558</v>
+      </c>
+      <c r="B284" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>560</v>
+      </c>
+      <c r="B285" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>562</v>
+      </c>
+      <c r="B286" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>564</v>
+      </c>
+      <c r="B287" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>566</v>
+      </c>
+      <c r="B288" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>568</v>
+      </c>
+      <c r="B289" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>570</v>
+      </c>
+      <c r="B290" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>572</v>
+      </c>
+      <c r="B291" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>574</v>
+      </c>
+      <c r="B292" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>576</v>
+      </c>
+      <c r="B293" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>578</v>
+      </c>
+      <c r="B294" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>580</v>
+      </c>
+      <c r="B295" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>582</v>
+      </c>
+      <c r="B296" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>584</v>
+      </c>
+      <c r="B297" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>586</v>
+      </c>
+      <c r="B298" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>588</v>
+      </c>
+      <c r="B299" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>590</v>
+      </c>
+      <c r="B300" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>592</v>
+      </c>
+      <c r="B301" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>595</v>
+      </c>
+      <c r="B303" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>597</v>
+      </c>
+      <c r="B304" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>599</v>
+      </c>
+      <c r="B305" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>601</v>
+      </c>
+      <c r="B306" t="s">
+        <v>602</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/partIII-addition.xlsx
+++ b/partIII-addition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="480" windowWidth="19600" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="13180" yWindow="460" windowWidth="12420" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="768">
   <si>
     <t>revolt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5659,6 +5659,1662 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leniency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宽厚，仁慈</t>
+    <rPh sb="2" eb="3">
+      <t>kuan hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肿胀的，肿起的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.解释；阐述</t>
+    <rPh sb="2" eb="3">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.商议，商谈；授予，赋予</t>
+    <rPh sb="2" eb="3">
+      <t>sahng yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shng tan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.否决，禁止</t>
+    <rPh sb="2" eb="3">
+      <t>fou jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebarbative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人讨厌的，冒犯人的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mao fan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.典当，抵押</t>
+    <rPh sb="2" eb="3">
+      <t>dian dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.典当，抵押；被利用的小人物</t>
+    <rPh sb="2" eb="3">
+      <t>dian dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di ya</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao ren wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.说话啰嗦的，冗长的</t>
+    <rPh sb="4" eb="5">
+      <t>shuo hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>luo suo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>rong chang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brittle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易碎的，脆弱的</t>
+    <rPh sb="4" eb="5">
+      <t>yi sui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cui ruo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unconscionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无节制的，过度的，不合理的</t>
+    <rPh sb="4" eb="5">
+      <t>wu jie zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu he li</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.融洽，和谐</t>
+    <rPh sb="2" eb="3">
+      <t>rong he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.夸大的广告宣传</t>
+    <rPh sb="2" eb="3">
+      <t>kua da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disfigure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.损毁……的外形；使变丑</t>
+    <rPh sb="2" eb="3">
+      <t>sun hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upbraid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.斥责，责骂</t>
+    <rPh sb="2" eb="3">
+      <t>chi ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ze ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlandish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.古怪的</t>
+    <rPh sb="4" eb="5">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.格言，声明</t>
+    <rPh sb="2" eb="3">
+      <t>ge yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 散步，开车兜风</t>
+    <rPh sb="6" eb="7">
+      <t>san bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai che</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dou feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自负的；徒劳的</t>
+    <rPh sb="4" eb="5">
+      <t>zi fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tu lao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monocle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.单片眼镜</t>
+    <rPh sb="2" eb="3">
+      <t>dan pian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.齐发，群射  v.齐发，群射；截击</t>
+    <rPh sb="2" eb="3">
+      <t>qi fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qun she</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蜿蜒而流；漫步</t>
+    <rPh sb="2" eb="3">
+      <t>wan yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>man bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huffy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.愤怒的，恼怒的</t>
+    <rPh sb="4" eb="5">
+      <t>fen nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nao nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.琐碎的，次要的；小气的</t>
+    <rPh sb="4" eb="5">
+      <t>suo sui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.垫子，席子  v.(使)缠绕；铺席于……上</t>
+    <rPh sb="2" eb="3">
+      <t>dian zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi zi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chan rao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>pu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.严肃的，矜持的</t>
+    <rPh sb="4" eb="5">
+      <t>yan su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin chi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恢复，振作；打扮；竖起</t>
+    <rPh sb="2" eb="3">
+      <t>hui f</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da ban</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haggard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.憔悴的，消瘦的</t>
+    <rPh sb="4" eb="5">
+      <t>qiao cui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.崇拜者，热心支持者</t>
+    <rPh sb="2" eb="3">
+      <t>chong bai zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>re xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi chi zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.欺凌，威吓</t>
+    <rPh sb="2" eb="3">
+      <t>qi ling</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.趾高气昂地走  n.支柱</t>
+    <rPh sb="2" eb="3">
+      <t>zhi gao qi ang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.轻拍，轻扣；使上下快速摆动</t>
+    <rPh sb="2" eb="3">
+      <t>qing pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing kou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang xia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kuai su</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bai dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.短暂、突然且猛烈的风暴</t>
+    <rPh sb="2" eb="3">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu rna</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>meng lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>feng bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短暂的骚动</t>
+    <rPh sb="0" eb="1">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sao dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potpourri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.混合物，杂烩</t>
+    <rPh sb="2" eb="3">
+      <t>hun he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>za hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissolute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.放荡的，无节制的</t>
+    <rPh sb="4" eb="5">
+      <t>fang dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu jie zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unearthly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奇异的</t>
+    <rPh sb="4" eb="5">
+      <t>qi yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小树林，树丛</t>
+    <rPh sb="2" eb="3">
+      <t>xiao shu lin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjunct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.附加物，附件</t>
+    <rPh sb="2" eb="3">
+      <t>fu jia wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangdog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧愁的；低贱的</t>
+    <rPh sb="4" eb="5">
+      <t>you chou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecumenical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.世界范围的，普遍的</t>
+    <rPh sb="4" eb="5">
+      <t>shi jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pu bian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.清洗，洗涤</t>
+    <rPh sb="2" eb="3">
+      <t>qing xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.食言，违约</t>
+    <rPh sb="2" eb="3">
+      <t>shi yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conducive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有助于……的，有益的</t>
+    <rPh sb="4" eb="5">
+      <t>you zhu yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspicuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显著的，显而易见的</t>
+    <rPh sb="4" eb="5">
+      <t>xian zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian er yi jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravenous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.饥饿的；贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.玩乐，戏耍  n.玩乐</t>
+    <rPh sb="2" eb="3">
+      <t>wan le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi shua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preamble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.前言，序言；先兆</t>
+    <rPh sb="2" eb="3">
+      <t>qian yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despoil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.夺取，抢夺</t>
+    <rPh sb="2" eb="3">
+      <t>duo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiang duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frowzy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不整洁的，污秽的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zheng jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v. 雀跃，跳跃</t>
+    <rPh sb="6" eb="7">
+      <t>que yue</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hectic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.兴奋的，繁忙的，忙乱的</t>
+    <rPh sb="4" eb="5">
+      <t>xing fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan mang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mang luan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harrowing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悲痛的，难受的</t>
+    <rPh sb="4" eb="5">
+      <t>bei tong de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan shou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.疲劳的，疲倦的</t>
+    <rPh sb="4" eb="5">
+      <t>pi lao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pi juan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人厌烦的，令人厌倦的</t>
+    <rPh sb="0" eb="1">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan fan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan juan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)厌烦，(使)疲倦</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pi juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n.小袋 </t>
+    <rPh sb="2" eb="3">
+      <t>xiao dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使成袋状；将(某物)装入袋中</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mou wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuang ru dai zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使腐坏；使昏乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu huai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hun luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浸软；使消瘦</t>
+    <rPh sb="2" eb="3">
+      <t>jin ruan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>careworn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧心忡忡的，饱经忧患的</t>
+    <rPh sb="4" eb="5">
+      <t>you xin chong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao jing you huan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nerve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.勇气  v.给予力量</t>
+    <rPh sb="2" eb="3">
+      <t>yong iq</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gei yu li liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.削；修剪；削减，减缩</t>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xue jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaundice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.偏见；黄疸</t>
+    <rPh sb="2" eb="3">
+      <t>pian jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatuity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.愚蠢，愚昧</t>
+    <rPh sb="2" eb="3">
+      <t>yu chun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.怒容  v.生气地皱眉；怒视</t>
+    <rPh sb="2" eb="3">
+      <t>nu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhou mei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nu sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stampede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惊跑，逃窜</t>
+    <rPh sb="2" eb="3">
+      <t>jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tao cuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.潜行，悄悄踱步  n.四处觅食，徘徊</t>
+    <rPh sb="2" eb="3">
+      <t>qian xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao qiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>si chu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mi'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>pai huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palliate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减轻(痛苦)；掩饰(罪行)</t>
+    <rPh sb="2" eb="3">
+      <t>jian qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zui ixng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.谨防的，怀疑的</t>
+    <rPh sb="4" eb="5">
+      <t>jin fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huai yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.总的；粗野的  n.全部，总额</t>
+    <rPh sb="4" eb="5">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cu ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>quan bu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zong e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.承认；公开宣称</t>
+    <rPh sb="2" eb="3">
+      <t>cheng ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong kai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐烂的；极坏的</t>
+    <rPh sb="4" eb="5">
+      <t>fu lan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji huai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infernal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地狱的；可恶的</t>
+    <rPh sb="4" eb="5">
+      <t>di yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whimper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.啜泣，呜咽</t>
+    <rPh sb="2" eb="3">
+      <t>chuo qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jargon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胡言乱语；行话</t>
+    <rPh sb="2" eb="3">
+      <t>hu yan luan yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hang hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.寒冷的；阴沉的；阴郁的，暗淡的</t>
+    <rPh sb="4" eb="5">
+      <t>han leng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin chen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin yu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>an dan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.偶然的；非正式的，随便的</t>
+    <rPh sb="4" eb="5">
+      <t>ou ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei zheng shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sui bian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狼吞虎咽的；贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>lang tun hu yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaffing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.玩笑的，嘲弄的</t>
+    <rPh sb="4" eb="5">
+      <t>wan xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao nong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballyhoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧闹，呐喊  v.大肆宣传，大吹大擂</t>
+    <rPh sb="2" eb="3">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>na han</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>da si xuan chuan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>da chui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.完全的，彻底的；极坏的，臭名昭著的</t>
+    <rPh sb="4" eb="5">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>che di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji huai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chou ming</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prehensile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.能抓住东西的，缠绕的</t>
+    <rPh sb="4" eb="5">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhua hzu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chan rao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scraggly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.凹凸不平的；散乱的</t>
+    <rPh sb="4" eb="5">
+      <t>ao tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu ping</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>san luan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tweak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扭，拧，揪；调节，微调</t>
+    <rPh sb="2" eb="3">
+      <t>niu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ning</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao jie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei tiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5983,10 +7639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A294" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A379" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
+      <selection activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8414,6 +10070,671 @@
         <v>602</v>
       </c>
     </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>603</v>
+      </c>
+      <c r="B308" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>605</v>
+      </c>
+      <c r="B309" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>607</v>
+      </c>
+      <c r="B310" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>609</v>
+      </c>
+      <c r="B311" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>611</v>
+      </c>
+      <c r="B312" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>613</v>
+      </c>
+      <c r="B313" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>615</v>
+      </c>
+      <c r="B314" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>618</v>
+      </c>
+      <c r="B316" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>620</v>
+      </c>
+      <c r="B317" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>622</v>
+      </c>
+      <c r="B318" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>624</v>
+      </c>
+      <c r="B319" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>626</v>
+      </c>
+      <c r="B320" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>628</v>
+      </c>
+      <c r="B321" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>630</v>
+      </c>
+      <c r="B322" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>632</v>
+      </c>
+      <c r="B323" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>634</v>
+      </c>
+      <c r="B324" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>636</v>
+      </c>
+      <c r="B325" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>638</v>
+      </c>
+      <c r="B326" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>640</v>
+      </c>
+      <c r="B327" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>642</v>
+      </c>
+      <c r="B328" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>644</v>
+      </c>
+      <c r="B329" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>646</v>
+      </c>
+      <c r="B330" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>648</v>
+      </c>
+      <c r="B331" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>650</v>
+      </c>
+      <c r="B332" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>652</v>
+      </c>
+      <c r="B333" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>654</v>
+      </c>
+      <c r="B334" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>656</v>
+      </c>
+      <c r="B335" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>658</v>
+      </c>
+      <c r="B336" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>660</v>
+      </c>
+      <c r="B337" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>662</v>
+      </c>
+      <c r="B338" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>664</v>
+      </c>
+      <c r="B339" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>666</v>
+      </c>
+      <c r="B340" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>669</v>
+      </c>
+      <c r="B342" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>671</v>
+      </c>
+      <c r="B343" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>673</v>
+      </c>
+      <c r="B344" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>675</v>
+      </c>
+      <c r="B345" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>677</v>
+      </c>
+      <c r="B346" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>679</v>
+      </c>
+      <c r="B347" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>681</v>
+      </c>
+      <c r="B348" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>683</v>
+      </c>
+      <c r="B349" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>685</v>
+      </c>
+      <c r="B350" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>687</v>
+      </c>
+      <c r="B351" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>689</v>
+      </c>
+      <c r="B352" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>691</v>
+      </c>
+      <c r="B353" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>693</v>
+      </c>
+      <c r="B354" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>695</v>
+      </c>
+      <c r="B355" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>697</v>
+      </c>
+      <c r="B356" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>699</v>
+      </c>
+      <c r="B357" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>701</v>
+      </c>
+      <c r="B358" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>703</v>
+      </c>
+      <c r="B359" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>705</v>
+      </c>
+      <c r="B360" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>707</v>
+      </c>
+      <c r="B361" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>711</v>
+      </c>
+      <c r="B364" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>714</v>
+      </c>
+      <c r="B366" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>716</v>
+      </c>
+      <c r="B367" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>718</v>
+      </c>
+      <c r="B368" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>720</v>
+      </c>
+      <c r="B369" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>722</v>
+      </c>
+      <c r="B370" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>724</v>
+      </c>
+      <c r="B371" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>726</v>
+      </c>
+      <c r="B372" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>728</v>
+      </c>
+      <c r="B373" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>730</v>
+      </c>
+      <c r="B374" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>732</v>
+      </c>
+      <c r="B375" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>734</v>
+      </c>
+      <c r="B376" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>736</v>
+      </c>
+      <c r="B377" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>738</v>
+      </c>
+      <c r="B378" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>740</v>
+      </c>
+      <c r="B379" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>742</v>
+      </c>
+      <c r="B380" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>744</v>
+      </c>
+      <c r="B381" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>746</v>
+      </c>
+      <c r="B382" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>748</v>
+      </c>
+      <c r="B383" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>750</v>
+      </c>
+      <c r="B384" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>752</v>
+      </c>
+      <c r="B385" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>754</v>
+      </c>
+      <c r="B386" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>756</v>
+      </c>
+      <c r="B387" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>758</v>
+      </c>
+      <c r="B388" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>760</v>
+      </c>
+      <c r="B389" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>762</v>
+      </c>
+      <c r="B390" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>764</v>
+      </c>
+      <c r="B391" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>766</v>
+      </c>
+      <c r="B392" t="s">
+        <v>767</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/partIII-addition.xlsx
+++ b/partIII-addition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="460" windowWidth="12420" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="756">
   <si>
     <t>revolt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,44 +825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.使隶属于；追溯……的来源；联合</t>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>li shu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>y</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhui su</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>lai yuan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>lian he</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.成员，附属机构</t>
-    <rPh sb="2" eb="3">
-      <t>cheng yuan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fu shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ji gou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exuberance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1252,38 +1214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.偷偷插入</t>
-    <rPh sb="2" eb="3">
-      <t>tou tou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cha tu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ru</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(以欺骗的方式)强加</t>
-    <rPh sb="1" eb="2">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi pian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qiang jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>con</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2285,35 +2215,6 @@
   </si>
   <si>
     <t>animate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.活的，有生命的</t>
-    <rPh sb="4" eb="5">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>you</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>sheng ming</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.赋予生命</t>
-    <rPh sb="2" eb="3">
-      <t>fu yu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>sheng ming</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3090,35 +2991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.宣告无罪；脱卸义务和责任</t>
-    <rPh sb="2" eb="3">
-      <t>xuan gao wu zui</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tuo xie</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi wu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>he</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ze ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还清(债务)</t>
-    <rPh sb="0" eb="1">
-      <t>huan qing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhai wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tirade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3857,32 +3729,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj.无节制的，肆无忌惮的；</t>
-    <rPh sb="4" eb="5">
-      <t>wu jie zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>si wu ji dan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嬉戏的；淘气的</t>
-    <rPh sb="4" eb="5">
-      <t>tao qi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>violet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4643,35 +4489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.闪烁，闪耀</t>
-    <rPh sb="2" eb="3">
-      <t>shan'shuo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shan'yao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.灿烂的光华；诱惑力，魅力</t>
-    <rPh sb="2" eb="3">
-      <t>chan'lan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guang'hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>you'ho'li</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>mei'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fumble</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5542,7 +5359,1707 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.呼啸而过，快速通过</t>
+    <t>glib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.圆滑的，能言善道的，善辩的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>neng yan shan bian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shan bian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bi an</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verisimilar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.好像真实的，逼真的；可能的</t>
+    <rPh sb="4" eb="5">
+      <t>hao xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bi zhen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.冲洗；痛饮</t>
+    <rPh sb="2" eb="3">
+      <t>chong xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elocution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.演说术</t>
+    <rPh sb="2" eb="3">
+      <t>yan hsuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leniency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宽厚，仁慈</t>
+    <rPh sb="2" eb="3">
+      <t>kuan hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肿胀的，肿起的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.解释；阐述</t>
+    <rPh sb="2" eb="3">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.商议，商谈；授予，赋予</t>
+    <rPh sb="2" eb="3">
+      <t>sahng yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shng tan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>veto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.否决，禁止</t>
+    <rPh sb="2" eb="3">
+      <t>fou jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebarbative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人讨厌的，冒犯人的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tao yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mao fan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.说话啰嗦的，冗长的</t>
+    <rPh sb="4" eb="5">
+      <t>shuo hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>luo suo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>rong chang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brittle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易碎的，脆弱的</t>
+    <rPh sb="4" eb="5">
+      <t>yi sui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cui ruo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unconscionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无节制的，过度的，不合理的</t>
+    <rPh sb="4" eb="5">
+      <t>wu jie zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu he li</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.融洽，和谐</t>
+    <rPh sb="2" eb="3">
+      <t>rong he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.夸大的广告宣传</t>
+    <rPh sb="2" eb="3">
+      <t>kua da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disfigure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.损毁……的外形；使变丑</t>
+    <rPh sb="2" eb="3">
+      <t>sun hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upbraid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.斥责，责骂</t>
+    <rPh sb="2" eb="3">
+      <t>chi ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ze ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlandish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.古怪的</t>
+    <rPh sb="4" eb="5">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.格言，声明</t>
+    <rPh sb="2" eb="3">
+      <t>ge yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 散步，开车兜风</t>
+    <rPh sb="6" eb="7">
+      <t>san bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai che</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dou feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自负的；徒劳的</t>
+    <rPh sb="4" eb="5">
+      <t>zi fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tu lao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monocle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.单片眼镜</t>
+    <rPh sb="2" eb="3">
+      <t>dan pian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.齐发，群射  v.齐发，群射；截击</t>
+    <rPh sb="2" eb="3">
+      <t>qi fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qun she</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蜿蜒而流；漫步</t>
+    <rPh sb="2" eb="3">
+      <t>wan yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>man bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huffy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.愤怒的，恼怒的</t>
+    <rPh sb="4" eb="5">
+      <t>fen nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nao nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.琐碎的，次要的；小气的</t>
+    <rPh sb="4" eb="5">
+      <t>suo sui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.垫子，席子  v.(使)缠绕；铺席于……上</t>
+    <rPh sb="2" eb="3">
+      <t>dian zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi zi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chan rao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>pu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.严肃的，矜持的</t>
+    <rPh sb="4" eb="5">
+      <t>yan su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin chi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恢复，振作；打扮；竖起</t>
+    <rPh sb="2" eb="3">
+      <t>hui f</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da ban</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haggard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.憔悴的，消瘦的</t>
+    <rPh sb="4" eb="5">
+      <t>qiao cui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.崇拜者，热心支持者</t>
+    <rPh sb="2" eb="3">
+      <t>chong bai zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>re xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi chi zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.欺凌，威吓</t>
+    <rPh sb="2" eb="3">
+      <t>qi ling</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.趾高气昂地走  n.支柱</t>
+    <rPh sb="2" eb="3">
+      <t>zhi gao qi ang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.轻拍，轻扣；使上下快速摆动</t>
+    <rPh sb="2" eb="3">
+      <t>qing pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing kou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang xia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kuai su</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bai dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potpourri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.混合物，杂烩</t>
+    <rPh sb="2" eb="3">
+      <t>hun he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>za hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissolute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.放荡的，无节制的</t>
+    <rPh sb="4" eb="5">
+      <t>fang dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu jie zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unearthly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奇异的</t>
+    <rPh sb="4" eb="5">
+      <t>qi yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小树林，树丛</t>
+    <rPh sb="2" eb="3">
+      <t>xiao shu lin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjunct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.附加物，附件</t>
+    <rPh sb="2" eb="3">
+      <t>fu jia wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangdog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧愁的；低贱的</t>
+    <rPh sb="4" eb="5">
+      <t>you chou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecumenical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.世界范围的，普遍的</t>
+    <rPh sb="4" eb="5">
+      <t>shi jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pu bian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.清洗，洗涤</t>
+    <rPh sb="2" eb="3">
+      <t>qing xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.食言，违约</t>
+    <rPh sb="2" eb="3">
+      <t>shi yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conducive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有助于……的，有益的</t>
+    <rPh sb="4" eb="5">
+      <t>you zhu yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspicuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显著的，显而易见的</t>
+    <rPh sb="4" eb="5">
+      <t>xian zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian er yi jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravenous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.饥饿的；贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.玩乐，戏耍  n.玩乐</t>
+    <rPh sb="2" eb="3">
+      <t>wan le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi shua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preamble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.前言，序言；先兆</t>
+    <rPh sb="2" eb="3">
+      <t>qian yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despoil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.夺取，抢夺</t>
+    <rPh sb="2" eb="3">
+      <t>duo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiang duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frowzy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不整洁的，污秽的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zheng jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v. 雀跃，跳跃</t>
+    <rPh sb="6" eb="7">
+      <t>que yue</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hectic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.兴奋的，繁忙的，忙乱的</t>
+    <rPh sb="4" eb="5">
+      <t>xing fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan mang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mang luan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harrowing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悲痛的，难受的</t>
+    <rPh sb="4" eb="5">
+      <t>bei tong de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan shou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使腐坏；使昏乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu huai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hun luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浸软；使消瘦</t>
+    <rPh sb="2" eb="3">
+      <t>jin ruan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>careworn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧心忡忡的，饱经忧患的</t>
+    <rPh sb="4" eb="5">
+      <t>you xin chong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao jing you huan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nerve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.勇气  v.给予力量</t>
+    <rPh sb="2" eb="3">
+      <t>yong iq</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gei yu li liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.削；修剪；削减，减缩</t>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xue jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaundice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.偏见；黄疸</t>
+    <rPh sb="2" eb="3">
+      <t>pian jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatuity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.愚蠢，愚昧</t>
+    <rPh sb="2" eb="3">
+      <t>yu chun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.怒容  v.生气地皱眉；怒视</t>
+    <rPh sb="2" eb="3">
+      <t>nu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhou mei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nu sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stampede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惊跑，逃窜</t>
+    <rPh sb="2" eb="3">
+      <t>jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tao cuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.潜行，悄悄踱步  n.四处觅食，徘徊</t>
+    <rPh sb="2" eb="3">
+      <t>qian xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao qiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>si chu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mi'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>pai huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palliate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减轻(痛苦)；掩饰(罪行)</t>
+    <rPh sb="2" eb="3">
+      <t>jian qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zui ixng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.谨防的，怀疑的</t>
+    <rPh sb="4" eb="5">
+      <t>jin fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huai yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.总的；粗野的  n.全部，总额</t>
+    <rPh sb="4" eb="5">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cu ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>quan bu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zong e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.承认；公开宣称</t>
+    <rPh sb="2" eb="3">
+      <t>cheng ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong kai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐烂的；极坏的</t>
+    <rPh sb="4" eb="5">
+      <t>fu lan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji huai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infernal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地狱的；可恶的</t>
+    <rPh sb="4" eb="5">
+      <t>di yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whimper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.啜泣，呜咽</t>
+    <rPh sb="2" eb="3">
+      <t>chuo qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jargon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胡言乱语；行话</t>
+    <rPh sb="2" eb="3">
+      <t>hu yan luan yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hang hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.寒冷的；阴沉的；阴郁的，暗淡的</t>
+    <rPh sb="4" eb="5">
+      <t>han leng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin chen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin yu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>an dan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.偶然的；非正式的，随便的</t>
+    <rPh sb="4" eb="5">
+      <t>ou ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei zheng shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sui bian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.狼吞虎咽的；贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>lang tun hu yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaffing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.玩笑的，嘲弄的</t>
+    <rPh sb="4" eb="5">
+      <t>wan xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao nong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballyhoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧闹，呐喊  v.大肆宣传，大吹大擂</t>
+    <rPh sb="2" eb="3">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>na han</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>da si xuan chuan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>da chui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.完全的，彻底的；极坏的，臭名昭著的</t>
+    <rPh sb="4" eb="5">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>che di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji huai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chou ming</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prehensile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.能抓住东西的，缠绕的</t>
+    <rPh sb="4" eb="5">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhua hzu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chan rao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scraggly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.凹凸不平的；散乱的</t>
+    <rPh sb="4" eb="5">
+      <t>ao tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu ping</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>san luan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tweak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扭，拧，揪；调节，微调</t>
+    <rPh sb="2" eb="3">
+      <t>niu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ning</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao jie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使隶属于；追溯……的来源；联合; n.成员，附属机构</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>y</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhui su</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lai yuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>lian he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.偷偷插入;(以欺骗的方式)强加</t>
+    <rPh sb="2" eb="3">
+      <t>tou tou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha tu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.活的，有生命的; v.赋予生命</t>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.宣告无罪；脱卸义务和责任;还清(债务)</t>
+    <rPh sb="2" eb="3">
+      <t>xuan gao wu zui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tuo xie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ze ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无节制的，肆无忌惮的；嬉戏的；淘气的</t>
+    <rPh sb="4" eb="5">
+      <t>wu jie zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>si wu ji dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闪烁，闪耀  n.灿烂的光华；诱惑力，魅力</t>
+    <rPh sb="2" eb="3">
+      <t>shan'shuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shan'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.呼啸而过，快速通过 ;猛投，用力投掷</t>
     <rPh sb="2" eb="3">
       <t>hu xiao</t>
     </rPh>
@@ -5558,227 +7075,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猛投，用力投掷</t>
-    <rPh sb="0" eb="1">
-      <t>meng</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>tou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yong li</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tou zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>glib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.圆滑的，能言善道的，善辩的</t>
-    <rPh sb="4" eb="5">
-      <t>yuan hua</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>neng yan shan bian</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shan bian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bi an</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verisimilar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.好像真实的，逼真的；可能的</t>
-    <rPh sb="4" eb="5">
-      <t>hao xiang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhen shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bi zhen</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ke neng</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.冲洗；痛饮</t>
-    <rPh sb="2" eb="3">
-      <t>chong xi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tong yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elocution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.演说术</t>
-    <rPh sb="2" eb="3">
-      <t>yan hsuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leniency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.宽厚，仁慈</t>
-    <rPh sb="2" eb="3">
-      <t>kuan hou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tumid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.肿胀的，肿起的</t>
-    <rPh sb="4" eb="5">
-      <t>zhong zhang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.解释；阐述</t>
-    <rPh sb="2" eb="3">
-      <t>jie shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chan shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.商议，商谈；授予，赋予</t>
-    <rPh sb="2" eb="3">
-      <t>sahng yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shng tan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shou yu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fu yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>veto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.否决，禁止</t>
-    <rPh sb="2" eb="3">
-      <t>fou jue</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jin zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rebarbative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.令人讨厌的，冒犯人的</t>
-    <rPh sb="4" eb="5">
-      <t>ling ren</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>tao yan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>mao fan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ren</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.典当，抵押</t>
+    <t>v.典当，抵押; n.典当，抵押；被利用的小人物</t>
     <rPh sb="2" eb="3">
       <t>dian dang</t>
     </rPh>
@@ -5788,513 +7085,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.典当，抵押；被利用的小人物</t>
-    <rPh sb="2" eb="3">
-      <t>dian dang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>di ya</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>li yong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xiao ren wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.说话啰嗦的，冗长的</t>
-    <rPh sb="4" eb="5">
-      <t>shuo hua</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>luo suo</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>rong chang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brittle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.易碎的，脆弱的</t>
-    <rPh sb="4" eb="5">
-      <t>yi sui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>cui ruo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unconscionable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.无节制的，过度的，不合理的</t>
-    <rPh sb="4" eb="5">
-      <t>wu jie zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>guo du</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>bu he li</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rapport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.融洽，和谐</t>
-    <rPh sb="2" eb="3">
-      <t>rong he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qia</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>he xie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.夸大的广告宣传</t>
-    <rPh sb="2" eb="3">
-      <t>kua da</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guang gao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xuan chuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disfigure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.损毁……的外形；使变丑</t>
-    <rPh sb="2" eb="3">
-      <t>sun hui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wai xing</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bian chou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upbraid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.斥责，责骂</t>
-    <rPh sb="2" eb="3">
-      <t>chi ze</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ze ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outlandish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.古怪的</t>
-    <rPh sb="4" eb="5">
-      <t>gu guai</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.格言，声明</t>
-    <rPh sb="2" eb="3">
-      <t>ge yan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>sheng ming</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>promenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.／v. 散步，开车兜风</t>
-    <rPh sb="6" eb="7">
-      <t>san bu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>kai che</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dou feng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.自负的；徒劳的</t>
-    <rPh sb="4" eb="5">
-      <t>zi fu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tu lao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monocle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.单片眼镜</t>
-    <rPh sb="2" eb="3">
-      <t>dan pian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yan jing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.齐发，群射  v.齐发，群射；截击</t>
-    <rPh sb="2" eb="3">
-      <t>qi fa</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qun she</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>jie</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meander</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.蜿蜒而流；漫步</t>
-    <rPh sb="2" eb="3">
-      <t>wan yan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>er</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>man bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huffy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.愤怒的，恼怒的</t>
-    <rPh sb="4" eb="5">
-      <t>fen nu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>nao nu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>petty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.琐碎的，次要的；小气的</t>
-    <rPh sb="4" eb="5">
-      <t>suo sui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ci yao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xiao qi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.垫子，席子  v.(使)缠绕；铺席于……上</t>
-    <rPh sb="2" eb="3">
-      <t>dian zi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xi zi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>chan rao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>pu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>xi</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.严肃的，矜持的</t>
-    <rPh sb="4" eb="5">
-      <t>yan su</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jin chi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.恢复，振作；打扮；竖起</t>
-    <rPh sb="2" eb="3">
-      <t>hui f</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhen zuo</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>da ban</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shu qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>haggard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.憔悴的，消瘦的</t>
-    <rPh sb="4" eb="5">
-      <t>qiao cui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xiao shou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>votary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.崇拜者，热心支持者</t>
-    <rPh sb="2" eb="3">
-      <t>chong bai zhe</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>re xin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhi chi zhe</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.欺凌，威吓</t>
-    <rPh sb="2" eb="3">
-      <t>qi ling</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.趾高气昂地走  n.支柱</t>
-    <rPh sb="2" eb="3">
-      <t>zhi gao qi ang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>di</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zou</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhi zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.轻拍，轻扣；使上下快速摆动</t>
-    <rPh sb="2" eb="3">
-      <t>qing pai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qing kou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shang xia</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>kuai su</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>bai dong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>squall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.短暂、突然且猛烈的风暴</t>
+    <t>n.短暂、突然且猛烈的风暴;短暂的骚动</t>
     <rPh sb="2" eb="3">
       <t>duan zan</t>
     </rPh>
@@ -6316,111 +7107,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短暂的骚动</t>
-    <rPh sb="0" eb="1">
-      <t>duan zan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>de</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>sao dong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>potpourri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.混合物，杂烩</t>
-    <rPh sb="2" eb="3">
-      <t>hun he</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>za hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dissolute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.放荡的，无节制的</t>
-    <rPh sb="4" eb="5">
-      <t>fang dang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wu jie zhi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unearthly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.奇异的</t>
-    <rPh sb="4" eb="5">
-      <t>qi yi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.小树林，树丛</t>
-    <rPh sb="2" eb="3">
-      <t>xiao shu lin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu cong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjunct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.附加物，附件</t>
-    <rPh sb="2" eb="3">
-      <t>fu jia wu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fu jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hangdog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.忧愁的；低贱的</t>
-    <rPh sb="4" eb="5">
-      <t>you chou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>di jian</t>
+    <t>adj.疲劳的，疲倦的; 令人厌烦的，令人厌倦的;  v.(使)厌烦，(使)疲倦</t>
+    <rPh sb="4" eb="5">
+      <t>pi lao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pi juan</t>
     </rPh>
     <rPh sb="10" eb="11">
       <t>de</t>
@@ -6428,893 +7123,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ecumenical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.世界范围的，普遍的</t>
-    <rPh sb="4" eb="5">
-      <t>shi jie</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fan wei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>pu bian de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.清洗，洗涤</t>
-    <rPh sb="2" eb="3">
-      <t>qing xi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xi di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>renege</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.食言，违约</t>
-    <rPh sb="2" eb="3">
-      <t>shi yan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wei yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conducive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.有助于……的，有益的</t>
-    <rPh sb="4" eb="5">
-      <t>you zhu yu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>you yi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conspicuous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.显著的，显而易见的</t>
-    <rPh sb="4" eb="5">
-      <t>xian zhu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xian er yi jian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ravenous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.饥饿的；贪婪的</t>
-    <rPh sb="4" eb="5">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>e</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tan lan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.玩乐，戏耍  n.玩乐</t>
-    <rPh sb="2" eb="3">
-      <t>wan le</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xi shua</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wan le</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preamble</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.前言，序言；先兆</t>
-    <rPh sb="2" eb="3">
-      <t>qian yan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xu yan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xian zhao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>despoil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.夺取，抢夺</t>
-    <rPh sb="2" eb="3">
-      <t>duo qu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qiang duo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frowzy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.不整洁的，污秽的</t>
-    <rPh sb="4" eb="5">
-      <t>bu zheng jie</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wu hui</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n./v. 雀跃，跳跃</t>
-    <rPh sb="6" eb="7">
-      <t>que yue</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tiao yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hectic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.兴奋的，繁忙的，忙乱的</t>
-    <rPh sb="4" eb="5">
-      <t>xing fen</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fan mang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>mang luan</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harrowing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.悲痛的，难受的</t>
-    <rPh sb="4" eb="5">
-      <t>bei tong de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>nan shou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.疲劳的，疲倦的</t>
-    <rPh sb="4" eb="5">
-      <t>pi lao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>pi juan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>令人厌烦的，令人厌倦的</t>
-    <rPh sb="0" eb="1">
-      <t>ling ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan fan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ling ren</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yan juan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.(使)厌烦，(使)疲倦</t>
-    <rPh sb="3" eb="4">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>pi juan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pouch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">n.小袋 </t>
+    <t>n.小袋 v.使成袋状；将(某物)装入袋中</t>
     <rPh sb="2" eb="3">
       <t>xiao dai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.使成袋状；将(某物)装入袋中</t>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhuang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mou wu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhuang ru dai zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.使腐坏；使昏乱</t>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fu huai</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hun luan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>macerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.浸软；使消瘦</t>
-    <rPh sb="2" eb="3">
-      <t>jin ruan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiao shou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>careworn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.忧心忡忡的，饱经忧患的</t>
-    <rPh sb="4" eb="5">
-      <t>you xin chong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bao jing you huan</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nerve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.勇气  v.给予力量</t>
-    <rPh sb="2" eb="3">
-      <t>yong iq</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gei yu li liang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.削；修剪；削减，减缩</t>
-    <rPh sb="2" eb="3">
-      <t>xiao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiu jian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xue jian</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jian suo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jaundice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.偏见；黄疸</t>
-    <rPh sb="2" eb="3">
-      <t>pian jian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>huang dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fatuity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.愚蠢，愚昧</t>
-    <rPh sb="2" eb="3">
-      <t>yu chun</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yu mei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scowl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.怒容  v.生气地皱眉；怒视</t>
-    <rPh sb="2" eb="3">
-      <t>nu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>rong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>sheng qi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>di</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhou mei</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>nu sh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stampede</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.惊跑，逃窜</t>
-    <rPh sb="2" eb="3">
-      <t>jing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>pao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tao cuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prowl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.潜行，悄悄踱步  n.四处觅食，徘徊</t>
-    <rPh sb="2" eb="3">
-      <t>qian xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qiao qiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>duo bu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>si chu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>mi'shi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>pai huai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>palliate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.减轻(痛苦)；掩饰(罪行)</t>
-    <rPh sb="2" eb="3">
-      <t>jian qing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tong ku</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yan shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zui ixng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.谨防的，怀疑的</t>
-    <rPh sb="4" eb="5">
-      <t>jin fang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>huai yi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>d</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.总的；粗野的  n.全部，总额</t>
-    <rPh sb="4" eb="5">
-      <t>zong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>cu ye</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>quan bu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zong e</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.承认；公开宣称</t>
-    <rPh sb="2" eb="3">
-      <t>cheng ren</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gong kai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xuan cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.腐烂的；极坏的</t>
-    <rPh sb="4" eb="5">
-      <t>fu lan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ji huai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infernal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.地狱的；可恶的</t>
-    <rPh sb="4" eb="5">
-      <t>di yu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ke wu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whimper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.啜泣，呜咽</t>
-    <rPh sb="2" eb="3">
-      <t>chuo qi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wu ye</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jargon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.胡言乱语；行话</t>
-    <rPh sb="2" eb="3">
-      <t>hu yan luan yu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hang hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bleak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.寒冷的；阴沉的；阴郁的，暗淡的</t>
-    <rPh sb="4" eb="5">
-      <t>han leng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yin chen</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yin yu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>an dan</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.偶然的；非正式的，随便的</t>
-    <rPh sb="4" eb="5">
-      <t>ou ran</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fei zheng shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>sui bian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ravening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.狼吞虎咽的；贪婪的</t>
-    <rPh sb="4" eb="5">
-      <t>lang tun hu yan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>tan lan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chaffing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.玩笑的，嘲弄的</t>
-    <rPh sb="4" eb="5">
-      <t>wan xiao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chao nong</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballyhoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.喧闹，呐喊  v.大肆宣传，大吹大擂</t>
-    <rPh sb="2" eb="3">
-      <t>xuan nao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>na han</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>da si xuan chuan</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>da chui</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>da</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.完全的，彻底的；极坏的，臭名昭著的</t>
-    <rPh sb="4" eb="5">
-      <t>wan quan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>che di</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ji huai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chou ming</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prehensile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.能抓住东西的，缠绕的</t>
-    <rPh sb="4" eb="5">
-      <t>neng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhua hzu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dong xi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chan rao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scraggly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.凹凸不平的；散乱的</t>
-    <rPh sb="4" eb="5">
-      <t>ao tu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bu ping</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>d</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>san luan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tweak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.扭，拧，揪；调节，微调</t>
-    <rPh sb="2" eb="3">
-      <t>niu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ning</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tiao jie</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wei tiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7639,10 +7450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A379" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7653,3089 +7464,3032 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>691</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>659</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>737</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>717</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>562</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>735</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>727</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>648</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>500</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>604</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>554</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>400</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>683</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>695</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>729</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>733</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>469</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>382</v>
+      </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>669</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>595</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>487</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>671</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>672</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>481</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>520</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>546</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>542</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>636</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>679</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>680</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>618</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>612</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>653</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>564</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>663</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>587</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>498</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>435</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>457</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>593</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>594</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>703</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>704</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>429</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>746</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>473</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>439</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>681</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>682</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>491</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>494</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>495</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>544</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>545</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>581</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>582</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>496</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>493</v>
+      </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>715</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>716</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>485</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>657</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>658</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>406</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>640</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>641</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>661</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>687</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>688</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>566</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>685</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>686</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>644</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>291</v>
+        <v>630</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>631</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>580</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>751</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>295</v>
+        <v>610</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>611</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>117</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>60</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>721</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>722</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>552</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>461</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>331</v>
+        <v>518</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>519</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="B172" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>339</v>
+        <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>725</v>
+      </c>
       <c r="B174" t="s">
-        <v>341</v>
+        <v>726</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>342</v>
+        <v>701</v>
       </c>
       <c r="B175" t="s">
-        <v>343</v>
+        <v>702</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="B176" t="s">
-        <v>345</v>
+        <v>418</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="B177" t="s">
-        <v>347</v>
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="B178" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>350</v>
+        <v>516</v>
       </c>
       <c r="B179" t="s">
-        <v>351</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="B180" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>355</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>356</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>357</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>358</v>
+        <v>675</v>
       </c>
       <c r="B183" t="s">
-        <v>359</v>
+        <v>676</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="B184" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="B185" t="s">
-        <v>363</v>
+        <v>221</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>364</v>
+        <v>713</v>
       </c>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>714</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>366</v>
+        <v>589</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>590</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>370</v>
+        <v>483</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>522</v>
       </c>
       <c r="B190" t="s">
-        <v>373</v>
+        <v>523</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>572</v>
       </c>
       <c r="B191" t="s">
-        <v>375</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>376</v>
+        <v>693</v>
       </c>
       <c r="B192" t="s">
-        <v>377</v>
+        <v>694</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>378</v>
+        <v>103</v>
       </c>
       <c r="B193" t="s">
-        <v>379</v>
+        <v>104</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>380</v>
+        <v>634</v>
       </c>
       <c r="B194" t="s">
-        <v>381</v>
+        <v>635</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>382</v>
+        <v>628</v>
       </c>
       <c r="B195" t="s">
-        <v>383</v>
+        <v>629</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="B196" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>386</v>
+        <v>138</v>
       </c>
       <c r="B197" t="s">
-        <v>387</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>388</v>
+        <v>540</v>
       </c>
       <c r="B198" t="s">
-        <v>389</v>
+        <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>391</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>392</v>
+        <v>514</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="B201" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>396</v>
+        <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>397</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>398</v>
+        <v>624</v>
       </c>
       <c r="B203" t="s">
-        <v>399</v>
+        <v>625</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="B205" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>404</v>
+        <v>34</v>
       </c>
       <c r="B206" t="s">
-        <v>405</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="B207" t="s">
-        <v>407</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="B208" t="s">
-        <v>409</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>410</v>
+        <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>411</v>
+        <v>268</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>412</v>
+        <v>697</v>
       </c>
       <c r="B210" t="s">
-        <v>413</v>
+        <v>698</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>414</v>
+        <v>504</v>
       </c>
       <c r="B211" t="s">
-        <v>415</v>
+        <v>505</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>416</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>417</v>
+        <v>239</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>226</v>
       </c>
       <c r="B213" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>420</v>
+        <v>616</v>
       </c>
       <c r="B214" t="s">
-        <v>421</v>
+        <v>617</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>422</v>
+        <v>570</v>
       </c>
       <c r="B215" t="s">
-        <v>423</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>427</v>
+      </c>
       <c r="B216" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="B217" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>427</v>
+        <v>711</v>
       </c>
       <c r="B218" t="s">
-        <v>428</v>
+        <v>712</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>429</v>
+        <v>204</v>
       </c>
       <c r="B219" t="s">
-        <v>430</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>431</v>
+        <v>62</v>
       </c>
       <c r="B220" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>433</v>
+        <v>699</v>
       </c>
       <c r="B221" t="s">
-        <v>434</v>
+        <v>700</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>435</v>
+        <v>534</v>
       </c>
       <c r="B222" t="s">
-        <v>436</v>
+        <v>535</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>601</v>
       </c>
       <c r="B223" t="s">
-        <v>438</v>
+        <v>752</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="B224" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="B225" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>443</v>
+        <v>550</v>
       </c>
       <c r="B226" t="s">
-        <v>444</v>
+        <v>551</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B227" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>447</v>
+        <v>638</v>
       </c>
       <c r="B228" t="s">
-        <v>448</v>
+        <v>639</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>449</v>
+        <v>123</v>
       </c>
       <c r="B229" t="s">
-        <v>450</v>
+        <v>124</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>451</v>
+        <v>576</v>
       </c>
       <c r="B230" t="s">
-        <v>452</v>
+        <v>577</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>454</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="B232" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>457</v>
+        <v>632</v>
       </c>
       <c r="B233" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>459</v>
+        <v>54</v>
       </c>
       <c r="B234" t="s">
-        <v>460</v>
+        <v>55</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="B235" t="s">
-        <v>462</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="B236" t="s">
-        <v>464</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B237" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="B238" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="B239" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>471</v>
+        <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>472</v>
+        <v>27</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>473</v>
+        <v>651</v>
       </c>
       <c r="B241" t="s">
-        <v>474</v>
+        <v>652</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>475</v>
+        <v>690</v>
       </c>
       <c r="B242" t="s">
-        <v>476</v>
+        <v>755</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B243" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>479</v>
+        <v>224</v>
       </c>
       <c r="B244" t="s">
-        <v>480</v>
+        <v>225</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>481</v>
+        <v>677</v>
       </c>
       <c r="B245" t="s">
-        <v>482</v>
+        <v>678</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>483</v>
+        <v>739</v>
       </c>
       <c r="B246" t="s">
-        <v>484</v>
+        <v>740</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="B247" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>487</v>
+        <v>297</v>
       </c>
       <c r="B248" t="s">
-        <v>488</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>489</v>
+        <v>240</v>
       </c>
       <c r="B249" t="s">
-        <v>490</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>491</v>
+        <v>232</v>
       </c>
       <c r="B250" t="s">
-        <v>492</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>493</v>
+        <v>289</v>
       </c>
       <c r="B251" t="s">
-        <v>494</v>
+        <v>290</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>495</v>
+        <v>154</v>
       </c>
       <c r="B252" t="s">
-        <v>496</v>
+        <v>155</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>497</v>
+        <v>602</v>
       </c>
       <c r="B253" t="s">
-        <v>498</v>
+        <v>603</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>499</v>
+        <v>620</v>
       </c>
       <c r="B254" t="s">
-        <v>500</v>
+        <v>621</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>501</v>
+        <v>709</v>
       </c>
       <c r="B255" t="s">
-        <v>502</v>
+        <v>710</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="B256" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>665</v>
+      </c>
       <c r="B257" t="s">
-        <v>505</v>
+        <v>666</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>506</v>
+        <v>245</v>
       </c>
       <c r="B258" t="s">
-        <v>507</v>
+        <v>246</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>508</v>
+        <v>370</v>
       </c>
       <c r="B259" t="s">
-        <v>509</v>
+        <v>371</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>510</v>
+        <v>309</v>
       </c>
       <c r="B260" t="s">
-        <v>511</v>
+        <v>310</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="B261" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>514</v>
+        <v>170</v>
       </c>
       <c r="B262" t="s">
-        <v>515</v>
+        <v>171</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>516</v>
+        <v>111</v>
       </c>
       <c r="B263" t="s">
-        <v>517</v>
+        <v>112</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="B264" t="s">
-        <v>519</v>
+        <v>324</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>520</v>
+        <v>291</v>
       </c>
       <c r="B265" t="s">
-        <v>521</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="B266" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>524</v>
+        <v>398</v>
       </c>
       <c r="B267" t="s">
-        <v>525</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>526</v>
+        <v>731</v>
       </c>
       <c r="B268" t="s">
-        <v>527</v>
+        <v>732</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>528</v>
+        <v>673</v>
       </c>
       <c r="B269" t="s">
-        <v>529</v>
+        <v>674</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="B270" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>532</v>
+        <v>396</v>
       </c>
       <c r="B271" t="s">
-        <v>533</v>
+        <v>397</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B273" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B274" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>540</v>
+        <v>18</v>
       </c>
       <c r="B275" t="s">
-        <v>541</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>542</v>
+        <v>667</v>
       </c>
       <c r="B276" t="s">
-        <v>543</v>
+        <v>668</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>544</v>
+        <v>158</v>
       </c>
       <c r="B277" t="s">
-        <v>545</v>
+        <v>159</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>546</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>547</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>548</v>
+        <v>421</v>
       </c>
       <c r="B279" t="s">
-        <v>549</v>
+        <v>422</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>550</v>
+        <v>146</v>
       </c>
       <c r="B280" t="s">
-        <v>551</v>
+        <v>147</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>552</v>
+        <v>50</v>
       </c>
       <c r="B281" t="s">
-        <v>553</v>
+        <v>51</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>556</v>
+        <v>10</v>
       </c>
       <c r="B283" t="s">
-        <v>557</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>558</v>
+        <v>350</v>
       </c>
       <c r="B284" t="s">
-        <v>559</v>
+        <v>351</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>560</v>
+        <v>255</v>
       </c>
       <c r="B285" t="s">
-        <v>561</v>
+        <v>256</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>562</v>
+        <v>719</v>
       </c>
       <c r="B286" t="s">
-        <v>563</v>
+        <v>720</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>564</v>
+        <v>459</v>
       </c>
       <c r="B287" t="s">
-        <v>565</v>
+        <v>460</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>566</v>
+        <v>374</v>
       </c>
       <c r="B288" t="s">
-        <v>567</v>
+        <v>375</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>568</v>
+        <v>86</v>
       </c>
       <c r="B289" t="s">
-        <v>569</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>570</v>
+        <v>273</v>
       </c>
       <c r="B290" t="s">
-        <v>571</v>
+        <v>274</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>572</v>
+        <v>705</v>
       </c>
       <c r="B291" t="s">
-        <v>573</v>
+        <v>706</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>574</v>
+        <v>741</v>
       </c>
       <c r="B292" t="s">
-        <v>575</v>
+        <v>742</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>576</v>
+        <v>218</v>
       </c>
       <c r="B293" t="s">
-        <v>577</v>
+        <v>219</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>578</v>
+        <v>275</v>
       </c>
       <c r="B294" t="s">
-        <v>579</v>
+        <v>276</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>580</v>
+        <v>222</v>
       </c>
       <c r="B295" t="s">
-        <v>581</v>
+        <v>223</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>582</v>
+        <v>84</v>
       </c>
       <c r="B296" t="s">
-        <v>583</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>584</v>
+        <v>364</v>
       </c>
       <c r="B297" t="s">
-        <v>585</v>
+        <v>365</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>586</v>
+        <v>208</v>
       </c>
       <c r="B298" t="s">
-        <v>587</v>
+        <v>209</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>588</v>
+        <v>176</v>
       </c>
       <c r="B299" t="s">
-        <v>589</v>
+        <v>177</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>590</v>
+        <v>455</v>
       </c>
       <c r="B300" t="s">
-        <v>591</v>
+        <v>456</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>592</v>
+        <v>156</v>
       </c>
       <c r="B301" t="s">
-        <v>593</v>
+        <v>157</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>30</v>
+      </c>
       <c r="B302" t="s">
-        <v>594</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="B303" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="B304" t="s">
-        <v>598</v>
+        <v>83</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>599</v>
+        <v>315</v>
       </c>
       <c r="B305" t="s">
-        <v>600</v>
+        <v>316</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>601</v>
+        <v>342</v>
       </c>
       <c r="B306" t="s">
-        <v>602</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>88</v>
+      </c>
+      <c r="B307" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>603</v>
+        <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>604</v>
+        <v>320</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>605</v>
+        <v>331</v>
       </c>
       <c r="B309" t="s">
-        <v>606</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>607</v>
+        <v>202</v>
       </c>
       <c r="B310" t="s">
-        <v>608</v>
+        <v>203</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>609</v>
+        <v>14</v>
       </c>
       <c r="B311" t="s">
-        <v>610</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>611</v>
+        <v>574</v>
       </c>
       <c r="B312" t="s">
-        <v>612</v>
+        <v>575</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>613</v>
+        <v>196</v>
       </c>
       <c r="B313" t="s">
-        <v>614</v>
+        <v>197</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="B314" t="s">
-        <v>616</v>
+        <v>753</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>188</v>
+      </c>
       <c r="B315" t="s">
-        <v>617</v>
+        <v>189</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>618</v>
+        <v>376</v>
       </c>
       <c r="B316" t="s">
-        <v>619</v>
+        <v>377</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="B317" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>622</v>
+        <v>524</v>
       </c>
       <c r="B318" t="s">
-        <v>623</v>
+        <v>525</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>624</v>
+        <v>16</v>
       </c>
       <c r="B319" t="s">
-        <v>625</v>
+        <v>17</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>626</v>
+        <v>214</v>
       </c>
       <c r="B320" t="s">
-        <v>627</v>
+        <v>215</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>628</v>
+        <v>109</v>
       </c>
       <c r="B321" t="s">
-        <v>629</v>
+        <v>110</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>630</v>
+        <v>447</v>
       </c>
       <c r="B322" t="s">
-        <v>631</v>
+        <v>448</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>632</v>
+        <v>242</v>
       </c>
       <c r="B323" t="s">
-        <v>633</v>
+        <v>243</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>634</v>
+        <v>558</v>
       </c>
       <c r="B324" t="s">
-        <v>635</v>
+        <v>559</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B325" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>638</v>
+        <v>502</v>
       </c>
       <c r="B326" t="s">
-        <v>639</v>
+        <v>503</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>640</v>
+        <v>140</v>
       </c>
       <c r="B327" t="s">
-        <v>641</v>
+        <v>141</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>642</v>
+        <v>184</v>
       </c>
       <c r="B328" t="s">
-        <v>643</v>
+        <v>185</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>644</v>
+        <v>410</v>
       </c>
       <c r="B329" t="s">
-        <v>645</v>
+        <v>411</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>646</v>
+        <v>269</v>
       </c>
       <c r="B330" t="s">
-        <v>647</v>
+        <v>270</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>648</v>
+        <v>97</v>
       </c>
       <c r="B331" t="s">
-        <v>649</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="B332" t="s">
-        <v>651</v>
+        <v>511</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>652</v>
+        <v>303</v>
       </c>
       <c r="B333" t="s">
-        <v>653</v>
+        <v>304</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>654</v>
+        <v>360</v>
       </c>
       <c r="B334" t="s">
-        <v>655</v>
+        <v>361</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="B335" t="s">
-        <v>657</v>
+        <v>77</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>658</v>
+        <v>121</v>
       </c>
       <c r="B336" t="s">
-        <v>659</v>
+        <v>122</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>660</v>
+        <v>68</v>
       </c>
       <c r="B337" t="s">
-        <v>661</v>
+        <v>69</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>662</v>
+        <v>192</v>
       </c>
       <c r="B338" t="s">
-        <v>663</v>
+        <v>193</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>664</v>
+        <v>585</v>
       </c>
       <c r="B339" t="s">
-        <v>665</v>
+        <v>586</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>666</v>
+        <v>127</v>
       </c>
       <c r="B340" t="s">
-        <v>667</v>
+        <v>128</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>125</v>
+      </c>
       <c r="B341" t="s">
-        <v>668</v>
+        <v>126</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>669</v>
+        <v>228</v>
       </c>
       <c r="B342" t="s">
-        <v>670</v>
+        <v>229</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>671</v>
+        <v>443</v>
       </c>
       <c r="B343" t="s">
-        <v>672</v>
+        <v>444</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>673</v>
+        <v>489</v>
       </c>
       <c r="B344" t="s">
-        <v>674</v>
+        <v>490</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>675</v>
+        <v>162</v>
       </c>
       <c r="B345" t="s">
-        <v>676</v>
+        <v>163</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>677</v>
+        <v>336</v>
       </c>
       <c r="B346" t="s">
-        <v>678</v>
+        <v>337</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>679</v>
+        <v>105</v>
       </c>
       <c r="B347" t="s">
-        <v>680</v>
+        <v>106</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>681</v>
+        <v>334</v>
       </c>
       <c r="B348" t="s">
-        <v>682</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>683</v>
+        <v>340</v>
       </c>
       <c r="B349" t="s">
-        <v>684</v>
+        <v>341</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>685</v>
+        <v>530</v>
       </c>
       <c r="B350" t="s">
-        <v>686</v>
+        <v>531</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>687</v>
+        <v>591</v>
       </c>
       <c r="B351" t="s">
-        <v>688</v>
+        <v>592</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>689</v>
+        <v>536</v>
       </c>
       <c r="B352" t="s">
-        <v>690</v>
+        <v>537</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>691</v>
+        <v>556</v>
       </c>
       <c r="B353" t="s">
-        <v>692</v>
+        <v>557</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>693</v>
+        <v>743</v>
       </c>
       <c r="B354" t="s">
-        <v>694</v>
+        <v>744</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>695</v>
+        <v>48</v>
       </c>
       <c r="B355" t="s">
-        <v>696</v>
+        <v>49</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="B356" t="s">
-        <v>698</v>
+        <v>607</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
       <c r="B357" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>701</v>
+        <v>614</v>
       </c>
       <c r="B358" t="s">
-        <v>702</v>
+        <v>615</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>703</v>
+        <v>622</v>
       </c>
       <c r="B359" t="s">
-        <v>704</v>
+        <v>623</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>705</v>
+        <v>583</v>
       </c>
       <c r="B360" t="s">
-        <v>706</v>
+        <v>584</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>707</v>
+        <v>506</v>
       </c>
       <c r="B361" t="s">
-        <v>708</v>
+        <v>507</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>597</v>
+      </c>
       <c r="B362" t="s">
-        <v>709</v>
+        <v>598</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>404</v>
+      </c>
       <c r="B363" t="s">
-        <v>710</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>711</v>
+        <v>338</v>
       </c>
       <c r="B364" t="s">
-        <v>712</v>
+        <v>339</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>415</v>
+      </c>
       <c r="B365" t="s">
-        <v>713</v>
+        <v>416</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>714</v>
+        <v>392</v>
       </c>
       <c r="B366" t="s">
-        <v>715</v>
+        <v>393</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>716</v>
+        <v>560</v>
       </c>
       <c r="B367" t="s">
-        <v>717</v>
+        <v>561</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>718</v>
+        <v>626</v>
       </c>
       <c r="B368" t="s">
-        <v>719</v>
+        <v>627</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>720</v>
+        <v>642</v>
       </c>
       <c r="B369" t="s">
-        <v>721</v>
+        <v>643</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>722</v>
+        <v>414</v>
       </c>
       <c r="B370" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>724</v>
+        <v>101</v>
       </c>
       <c r="B371" t="s">
-        <v>725</v>
+        <v>102</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>726</v>
+        <v>445</v>
       </c>
       <c r="B372" t="s">
-        <v>727</v>
+        <v>446</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>728</v>
+        <v>689</v>
       </c>
       <c r="B373" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B374" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>732</v>
+        <v>346</v>
       </c>
       <c r="B375" t="s">
-        <v>733</v>
+        <v>347</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>734</v>
+        <v>384</v>
       </c>
       <c r="B376" t="s">
-        <v>735</v>
+        <v>385</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>736</v>
+        <v>453</v>
       </c>
       <c r="B377" t="s">
-        <v>737</v>
+        <v>454</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>738</v>
+        <v>475</v>
       </c>
       <c r="B378" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>740</v>
-      </c>
-      <c r="B379" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>742</v>
-      </c>
-      <c r="B380" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>744</v>
-      </c>
-      <c r="B381" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>746</v>
-      </c>
-      <c r="B382" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>748</v>
-      </c>
-      <c r="B383" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>750</v>
-      </c>
-      <c r="B384" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>752</v>
-      </c>
-      <c r="B385" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>754</v>
-      </c>
-      <c r="B386" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>756</v>
-      </c>
-      <c r="B387" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>758</v>
-      </c>
-      <c r="B388" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>760</v>
-      </c>
-      <c r="B389" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>762</v>
-      </c>
-      <c r="B390" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>764</v>
-      </c>
-      <c r="B391" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>766</v>
-      </c>
-      <c r="B392" t="s">
-        <v>767</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B378">
+    <sortCondition ref="A378"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
